--- a/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brestadodoeventoxeventstatus_brestadodoeventoxeventstatus.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brestadodoeventoxeventstatus_brestadodoeventoxeventstatus.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monalisa\Documents\GitHub\HSL-IPS\Entregaveis\Entrega_1_RepositorioSemantico\Imunizacao\ConceptMap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documentos\HSL-IPS\Entregaveis\1.RepositorioSemantico\Imunizacao\ConceptMap\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="756" windowWidth="27540" windowHeight="13104"/>
+    <workbookView xWindow="0" yWindow="756" windowWidth="27540" windowHeight="13104" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="brestadodoeventoxeventstatus" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,8 @@
     <sheet name="Opções" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">brestadodoeventoxeventstatus!$A$3:$I$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">eventstatusxbrestadoevento!$A$3:$I$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">brestadodoeventoxeventstatus!$A$3:$H$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">eventstatusxbrestadoevento!$A$3:$H$3</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">brestadodoeventoxeventstatus!$H$3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -30,76 +30,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Monalisa</author>
-  </authors>
-  <commentList>
-    <comment ref="I3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Monalisa:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-irá manter ou não?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Monalisa</author>
-  </authors>
-  <commentList>
-    <comment ref="I3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Monalisa:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-irá manter ou não?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="48">
   <si>
     <t>GRAU DE EQUIVALÊNCIA DO MAPEAMENTO</t>
   </si>
@@ -125,12 +57,6 @@
     <t>TERMO REPETIDO.</t>
   </si>
   <si>
-    <t xml:space="preserve">Collection x Collection </t>
-  </si>
-  <si>
-    <t>Organização x Organização</t>
-  </si>
-  <si>
     <t>ID (FONTE)</t>
   </si>
   <si>
@@ -152,9 +78,6 @@
     <t>DISPLAY NAME (ALVO)</t>
   </si>
   <si>
-    <t>NOME (PT-PT)</t>
-  </si>
-  <si>
     <t xml:space="preserve">CLASS (ALVO) </t>
   </si>
   <si>
@@ -162,13 +85,105 @@
   </si>
   <si>
     <t>SOURCE (ALVO)</t>
+  </si>
+  <si>
+    <t>BREstadoEvento</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>not-done</t>
+  </si>
+  <si>
+    <t>stopped</t>
+  </si>
+  <si>
+    <t>in-progress</t>
+  </si>
+  <si>
+    <t>preparation</t>
+  </si>
+  <si>
+    <t>entered-in-error</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>on-hold</t>
+  </si>
+  <si>
+    <t>Desconhecido</t>
+  </si>
+  <si>
+    <t>Cancelado</t>
+  </si>
+  <si>
+    <t>Em andamento</t>
+  </si>
+  <si>
+    <t>Entrada com erro</t>
+  </si>
+  <si>
+    <t>Completado</t>
+  </si>
+  <si>
+    <t>Suspenso</t>
+  </si>
+  <si>
+    <t>Não Realizado</t>
+  </si>
+  <si>
+    <t>Pré-procedimento</t>
+  </si>
+  <si>
+    <t>Diversos</t>
+  </si>
+  <si>
+    <t>Texto</t>
+  </si>
+  <si>
+    <t>BREstadoEvento-1.0 x ImmunizationStatusCodes</t>
+  </si>
+  <si>
+    <t>Ministério da Saúde do Brasil (http://www.saude.gov.br/fhir/r4/ValueSet/BREstadoEvento-1.0) x HL7 (
+http://hl7.org/fhir/ValueSet/immunization-status)</t>
+  </si>
+  <si>
+    <t>ImmunizationStatusCodes x BREstadoEvento-1.0</t>
+  </si>
+  <si>
+    <t>HL7 (
+http://hl7.org/fhir/ValueSet/immunization-status) x Ministério da Saúde do Brasil (http://www.saude.gov.br/fhir/r4/ValueSet/BREstadoEvento-1.0)</t>
+  </si>
+  <si>
+    <t>event-status</t>
+  </si>
+  <si>
+    <t>Not Done</t>
+  </si>
+  <si>
+    <t>Entered in Error</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texto </t>
+  </si>
+  <si>
+    <t>1..1</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,14 +200,6 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -201,24 +208,11 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="16"/>
       <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -263,23 +257,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,11 +555,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -572,37 +567,36 @@
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" customWidth="1"/>
-    <col min="5" max="6" width="27.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="27.21875" customWidth="1"/>
     <col min="7" max="7" width="23.6640625" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" customWidth="1"/>
-    <col min="9" max="9" width="30.33203125" customWidth="1"/>
-    <col min="10" max="10" width="23.109375" customWidth="1"/>
-    <col min="11" max="11" width="18.21875" customWidth="1"/>
-    <col min="12" max="12" width="29.33203125" customWidth="1"/>
-    <col min="13" max="13" width="19.77734375" customWidth="1"/>
+    <col min="9" max="9" width="23.109375" customWidth="1"/>
+    <col min="10" max="10" width="18.21875" customWidth="1"/>
+    <col min="11" max="11" width="29.33203125" customWidth="1"/>
+    <col min="12" max="12" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-    </row>
-    <row r="2" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>9</v>
+    <row r="1" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -615,66 +609,362 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="J3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>1</v>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:I3"/>
+  <autoFilter ref="A3:H3"/>
   <mergeCells count="2">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I1048576">
-      <formula1>"1..1,1..*,*..1,*..*"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
       <formula1>"1..1,1..*,*..1,*..*,-,"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -682,13 +972,13 @@
           <x14:formula1>
             <xm:f>Opções!$A$1:$G$1</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H1048576</xm:sqref>
+          <xm:sqref>H12:H1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Opções!$A$1:$E$1</xm:f>
           </x14:formula1>
-          <xm:sqref>L1:L1048576</xm:sqref>
+          <xm:sqref>K1:K1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -697,11 +987,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -712,33 +1002,31 @@
     <col min="5" max="6" width="31.6640625" customWidth="1"/>
     <col min="7" max="7" width="21.109375" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" customWidth="1"/>
-    <col min="9" max="9" width="25.44140625" customWidth="1"/>
-    <col min="10" max="10" width="15.88671875" customWidth="1"/>
-    <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="24.88671875" customWidth="1"/>
-    <col min="13" max="13" width="42.44140625" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" customWidth="1"/>
+    <col min="12" max="12" width="42.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-    </row>
-    <row r="2" spans="1:13" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -751,65 +1039,171 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:12" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="J3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>1</v>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:I3"/>
+  <autoFilter ref="A3:H3"/>
   <mergeCells count="2">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I1048576">
-      <formula1>"1..1,1..*,*..1,*..*"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
       <formula1>"1..1,1..*,*..1,*..*,-,"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -817,13 +1211,13 @@
           <x14:formula1>
             <xm:f>Opções!$A$1:$G$1</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H1048576</xm:sqref>
+          <xm:sqref>H7:H1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Opções!$A$1:$E$1</xm:f>
           </x14:formula1>
-          <xm:sqref>L1:L1048576</xm:sqref>
+          <xm:sqref>K1:K1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brestadodoeventoxeventstatus_brestadodoeventoxeventstatus.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brestadodoeventoxeventstatus_brestadodoeventoxeventstatus.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documentos\HSL-IPS\Entregaveis\1.RepositorioSemantico\Imunizacao\ConceptMap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87BF8B0-FD0B-664B-B05C-90FD67BFAEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="756" windowWidth="27540" windowHeight="13104" activeTab="1"/>
+    <workbookView xWindow="880" yWindow="1020" windowWidth="29060" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="brestadodoeventoxeventstatus" sheetId="1" r:id="rId1"/>
@@ -17,9 +18,9 @@
     <sheet name="Opções" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">brestadodoeventoxeventstatus!$A$3:$H$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">brestadodoeventoxeventstatus!$A$3:$F$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">eventstatusxbrestadoevento!$A$3:$H$3</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="0">brestadodoeventoxeventstatus!$H$3</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">brestadodoeventoxeventstatus!$F$3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="47">
   <si>
     <t>GRAU DE EQUIVALÊNCIA DO MAPEAMENTO</t>
   </si>
@@ -141,49 +142,65 @@
     <t>Diversos</t>
   </si>
   <si>
-    <t>Texto</t>
-  </si>
-  <si>
-    <t>BREstadoEvento-1.0 x ImmunizationStatusCodes</t>
-  </si>
-  <si>
-    <t>Ministério da Saúde do Brasil (http://www.saude.gov.br/fhir/r4/ValueSet/BREstadoEvento-1.0) x HL7 (
-http://hl7.org/fhir/ValueSet/immunization-status)</t>
-  </si>
-  <si>
-    <t>ImmunizationStatusCodes x BREstadoEvento-1.0</t>
+    <t>event-status</t>
+  </si>
+  <si>
+    <t>Not Done</t>
+  </si>
+  <si>
+    <t>Entered in Error</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texto </t>
+  </si>
+  <si>
+    <t>1..1</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target:  Organization HL7   Source http://hl7.org/fhir/ValueSet/immunization-status
+</t>
+  </si>
+  <si>
+    <t>Source:  Organization: MS Source: BREstadoEvento-1.0 x ImmunizationStatusCodes</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">Source -   Organization HL7   Source http://hl7.org/fhir/ValueSet/immunization-status	</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">						</t>
+    </r>
   </si>
   <si>
     <t>HL7 (
-http://hl7.org/fhir/ValueSet/immunization-status) x Ministério da Saúde do Brasil (http://www.saude.gov.br/fhir/r4/ValueSet/BREstadoEvento-1.0)</t>
-  </si>
-  <si>
-    <t>event-status</t>
-  </si>
-  <si>
-    <t>Not Done</t>
-  </si>
-  <si>
-    <t>Entered in Error</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texto </t>
-  </si>
-  <si>
-    <t>1..1</t>
-  </si>
-  <si>
-    <t>-</t>
+Target:   Organization MS  source: http://www.saude.gov.br/fhir/r4/ValueSet/BREstadoEvento-1.0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +230,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="3">
@@ -257,7 +280,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -274,11 +297,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -555,32 +577,341 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
-    <col min="6" max="6" width="27.21875" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" customWidth="1"/>
-    <col min="8" max="8" width="33.33203125" customWidth="1"/>
-    <col min="9" max="9" width="23.109375" customWidth="1"/>
-    <col min="10" max="10" width="18.21875" customWidth="1"/>
-    <col min="11" max="11" width="29.33203125" customWidth="1"/>
-    <col min="12" max="12" width="19.77734375" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" customWidth="1"/>
+    <col min="7" max="8" width="43.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="49.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
         <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:F3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>"1..1,1..*,*..1,*..*,-,"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+          <x14:formula1>
+            <xm:f>Opções!$A$1:$G$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>F12:F1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+          <x14:formula1>
+            <xm:f>Opções!$A$1:$E$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>G1:G1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="3" width="31.1640625" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="5" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.1640625" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="24.83203125" customWidth="1"/>
+    <col min="12" max="12" width="42.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -594,9 +925,9 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="55.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -610,7 +941,7 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="65.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -648,558 +979,128 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>
       </c>
       <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
         <v>36</v>
       </c>
-      <c r="F4" t="s">
-        <v>47</v>
-      </c>
       <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>47</v>
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
       </c>
       <c r="K4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
         <v>35</v>
       </c>
       <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
         <v>35</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K5" t="s">
         <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
         <v>35</v>
       </c>
       <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
         <v>36</v>
       </c>
-      <c r="F6" t="s">
-        <v>47</v>
-      </c>
       <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>47</v>
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
       </c>
       <c r="K6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L11" t="s">
-        <v>47</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:H3"/>
+  <autoFilter ref="A3:H3" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
-      <formula1>"1..1,1..*,*..1,*..*,-,"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Opções!$A$1:$G$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>H12:H1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Opções!$A$1:$E$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>K1:K1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="31.44140625" customWidth="1"/>
-    <col min="2" max="3" width="31.109375" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="6" width="31.6640625" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" customWidth="1"/>
-    <col min="8" max="8" width="33.33203125" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" customWidth="1"/>
-    <col min="12" max="12" width="42.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A3:H3"/>
-  <mergeCells count="2">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1..1,1..*,*..1,*..*,-,"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1207,13 +1108,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>Opções!$A$1:$G$1</xm:f>
           </x14:formula1>
           <xm:sqref>H7:H1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>Opções!$A$1:$E$1</xm:f>
           </x14:formula1>
@@ -1226,19 +1127,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
